--- a/AadvanteShoppingData.xlsx
+++ b/AadvanteShoppingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.gomez.restrepo\Downloads\AadvantageShopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D75B4C9-8F72-4809-B2F7-E9CFBF5AB9B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC65271-2F6F-4DBA-B51B-BBBA0574DF8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{06424314-7EF6-469F-A6F6-EA4F538FA338}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{06424314-7EF6-469F-A6F6-EA4F538FA338}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Aadvantage Number</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>123456gio</t>
+  </si>
+  <si>
+    <t>Mensaje Resultado</t>
+  </si>
+  <si>
+    <t>Welcome, Giovanni</t>
+  </si>
+  <si>
+    <t>8514517</t>
   </si>
 </sst>
 </file>
@@ -429,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A1825B-E2B9-4825-99DD-AB5A72E181FB}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,9 +451,10 @@
     <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,10 +473,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1020301</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -482,6 +495,9 @@
       </c>
       <c r="F2" t="s">
         <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
